--- a/技术支持问题一览.xlsx
+++ b/技术支持问题一览.xlsx
@@ -1,48 +1,415 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>发生日</t>
+  </si>
+  <si>
+    <t>发生人员</t>
+  </si>
+  <si>
+    <t>详细内容</t>
+  </si>
+  <si>
+    <t>解决状态</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>解决人</t>
+  </si>
+  <si>
+    <t>解决日</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -50,21 +417,328 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -355,50 +1029,83 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B4:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
+  <cols>
+    <col min="2" max="8" width="14.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:8">
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/技术支持问题一览.xlsx
+++ b/技术支持问题一览.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>发生日</t>
   </si>
@@ -38,6 +38,20 @@
   <si>
     <t>解决日</t>
   </si>
+  <si>
+    <t>王琪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">电商订单详细画面 上传资料时
+Attempted to perform an unauthorized operation
+1.杀毒软件屏蔽操作
+2.windows登录账号文件夹权限不够。
+3.CBS需要管理员账号登录执行。CBS已管理员身份运行。
+</t>
+  </si>
+  <si>
+    <t>解决</t>
+  </si>
 </sst>
 </file>
 
@@ -49,14 +63,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -535,48 +542,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -586,106 +596,109 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -746,6 +759,53 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>661670</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11068050" y="685800"/>
+          <a:ext cx="5462270" cy="4150360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1035,15 +1095,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B4:H4"/>
+  <dimension ref="B4:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="8" width="14.875" customWidth="1"/>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="4" max="4" width="51.5" customWidth="1"/>
+    <col min="5" max="8" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:8">
@@ -1069,10 +1132,25 @@
         <v>6</v>
       </c>
     </row>
+    <row r="5" ht="88" customHeight="1" spans="2:5">
+      <c r="B5" s="2">
+        <v>44939</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/技术支持问题一览.xlsx
+++ b/技术支持问题一览.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12450"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>发生日</t>
   </si>
@@ -52,6 +52,25 @@
   <si>
     <t>解决</t>
   </si>
+  <si>
+    <t>许君</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Access to the path 。。。  is denied
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>文件属性只读勾着</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -63,7 +82,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +232,13 @@
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -687,7 +713,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -698,6 +724,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -793,6 +822,90 @@
         <a:xfrm>
           <a:off x="11068050" y="685800"/>
           <a:ext cx="5462270" cy="4150360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11068050" y="4889500"/>
+          <a:ext cx="9505950" cy="7219950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2609850" y="5918200"/>
+          <a:ext cx="7181850" cy="6438900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1095,13 +1208,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B4:H5"/>
+  <dimension ref="B4:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="10.375" customWidth="1"/>
     <col min="3" max="3" width="14.875" customWidth="1"/>
@@ -1146,6 +1259,17 @@
         <v>9</v>
       </c>
     </row>
+    <row r="25" ht="40.5" spans="2:4">
+      <c r="B25" s="2">
+        <v>44980</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/技术支持问题一览.xlsx
+++ b/技术支持问题一览.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>发生日</t>
   </si>
@@ -53,10 +53,20 @@
     <t>解决</t>
   </si>
   <si>
+    <t>or .net 7.0</t>
+  </si>
+  <si>
     <t>许君</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Access to the path 。。。  is denied
 </t>
     </r>
@@ -92,6 +102,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -232,13 +249,6 @@
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -571,10 +581,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -583,34 +593,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -622,98 +629,101 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -725,6 +735,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1210,8 +1223,8 @@
   <sheetPr/>
   <dimension ref="B4:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1259,15 +1272,20 @@
         <v>9</v>
       </c>
     </row>
+    <row r="6" spans="4:4">
+      <c r="D6" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="25" ht="40.5" spans="2:4">
       <c r="B25" s="2">
         <v>44980</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="4" t="s">
         <v>11</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/技术支持问题一览.xlsx
+++ b/技术支持问题一览.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>发生日</t>
   </si>
@@ -79,6 +79,85 @@
         <scheme val="minor"/>
       </rPr>
       <t>文件属性只读勾着</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>错误  操作失败：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NOT CATCH EXCEPTIONS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。  后端报错信息</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">多数是前端传入日期格式不满足 yyyy-MM-dd 的位数造成。
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fillObjByNameFromValue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  ===&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fillObjByNameFromValueNew</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+日期string 以yyyy-MM-dd 格式传入后端。</t>
     </r>
   </si>
 </sst>
@@ -723,7 +802,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -740,6 +819,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -919,6 +1004,90 @@
         <a:xfrm>
           <a:off x="2609850" y="5918200"/>
           <a:ext cx="7181850" cy="6438900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6756400" y="13211175"/>
+          <a:ext cx="9505950" cy="7219950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>248920</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>115570</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>153670</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>134620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16117570" y="13406120"/>
+          <a:ext cx="9505950" cy="7219950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1221,10 +1390,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B4:H25"/>
+  <dimension ref="B4:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1286,6 +1455,27 @@
       </c>
       <c r="D25" s="5" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4">
+      <c r="B71" s="2">
+        <v>44988</v>
+      </c>
+      <c r="C71" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" ht="27" spans="4:4">
+      <c r="D72" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" ht="40.5" spans="4:4">
+      <c r="D73" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/技术支持问题一览.xlsx
+++ b/技术支持问题一览.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>发生日</t>
   </si>
@@ -159,6 +159,26 @@
       <t xml:space="preserve">
 日期string 以yyyy-MM-dd 格式传入后端。</t>
     </r>
+  </si>
+  <si>
+    <t>电商订单 商品一览，图片删除报错。
+由于用户误输了1个商品14个图片，导致下载往集合内加数据还没完成，就对集合进行了删除操作。
+异常log：
+Collection was modified; enumeration operation may not execute.</t>
+  </si>
+  <si>
+    <t>克隆对象替代集合对象</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            //图片下载速度过慢，会引发
+            //Collection was modified; enumeration operation may not execute.
+            List&lt;FileInfoModel&gt; files = obj as List&lt;FileInfoModel&gt;;
+            List&lt;FileInfoModel&gt; cloneFiles = CommonUtil2.CloneList&lt;FileInfoModel&gt;(files);
+            foreach (var f in cloneFiles)</t>
+  </si>
+  <si>
+    <t>其实应该加lock锁
+在循环集合对象以及add、remove的地方加锁。让for循环结束后再add或者remove。</t>
   </si>
 </sst>
 </file>
@@ -802,7 +822,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -823,6 +843,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -918,7 +941,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11068050" y="685800"/>
+          <a:off x="13811250" y="685800"/>
           <a:ext cx="5462270" cy="4150360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -960,7 +983,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11068050" y="4889500"/>
+          <a:off x="13811250" y="4889500"/>
           <a:ext cx="9505950" cy="7219950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1024,7 +1047,7 @@
       <xdr:rowOff>92075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>393700</xdr:colOff>
       <xdr:row>108</xdr:row>
       <xdr:rowOff>111125</xdr:rowOff>
@@ -1086,7 +1109,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16117570" y="13406120"/>
+          <a:off x="18860770" y="13406120"/>
           <a:ext cx="9505950" cy="7219950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1390,10 +1413,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B4:H73"/>
+  <dimension ref="B4:H111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="D112" sqref="D112:D113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1401,7 +1424,9 @@
     <col min="2" max="2" width="10.375" customWidth="1"/>
     <col min="3" max="3" width="14.875" customWidth="1"/>
     <col min="4" max="4" width="51.5" customWidth="1"/>
-    <col min="5" max="8" width="14.875" customWidth="1"/>
+    <col min="5" max="6" width="14.875" customWidth="1"/>
+    <col min="7" max="7" width="46.75" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:8">
@@ -1476,6 +1501,20 @@
     <row r="73" ht="40.5" spans="4:4">
       <c r="D73" s="7" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="111" ht="135" spans="4:8">
+      <c r="D111" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E111" t="s">
+        <v>17</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H111" s="8" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
